--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2877,28 +2877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.49751108338596</v>
+        <v>106.2412281465268</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.981466548224</v>
+        <v>145.3639353822079</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.8169195654113</v>
+        <v>131.4906054089341</v>
       </c>
       <c r="AD2" t="n">
-        <v>85497.51108338597</v>
+        <v>106241.2281465268</v>
       </c>
       <c r="AE2" t="n">
-        <v>116981.466548224</v>
+        <v>145363.9353822079</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.690207685806809e-06</v>
+        <v>7.92902880314407e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.320987654320987</v>
       </c>
       <c r="AH2" t="n">
-        <v>105816.9195654113</v>
+        <v>131490.6054089341</v>
       </c>
     </row>
     <row r="3">
@@ -2983,28 +2983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.48619303425045</v>
+        <v>84.14456924281961</v>
       </c>
       <c r="AB3" t="n">
-        <v>86.8646101225943</v>
+        <v>115.1303118343806</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.57437364776067</v>
+        <v>104.1424364593446</v>
       </c>
       <c r="AD3" t="n">
-        <v>63486.19303425045</v>
+        <v>84144.56924281962</v>
       </c>
       <c r="AE3" t="n">
-        <v>86864.6101225943</v>
+        <v>115130.3118343806</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.022966967856385e-06</v>
+        <v>1.018212449590141e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.364197530864198</v>
       </c>
       <c r="AH3" t="n">
-        <v>78574.37364776067</v>
+        <v>104142.4364593446</v>
       </c>
     </row>
     <row r="4">
@@ -3089,28 +3089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.05640167762646</v>
+        <v>70.47097539075818</v>
       </c>
       <c r="AB4" t="n">
-        <v>82.1718182767481</v>
+        <v>96.42149748961306</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.32945526930583</v>
+        <v>87.21916509764988</v>
       </c>
       <c r="AD4" t="n">
-        <v>60056.40167762646</v>
+        <v>70470.97539075819</v>
       </c>
       <c r="AE4" t="n">
-        <v>82171.8182767481</v>
+        <v>96421.49748961306</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.59431457511561e-06</v>
+        <v>1.11480159740709e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.070987654320988</v>
       </c>
       <c r="AH4" t="n">
-        <v>74329.45526930582</v>
+        <v>87219.16509764988</v>
       </c>
     </row>
     <row r="5">
@@ -3195,28 +3195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>48.37771690747597</v>
+        <v>69.12134446206572</v>
       </c>
       <c r="AB5" t="n">
-        <v>66.19252654702707</v>
+        <v>94.57487291146261</v>
       </c>
       <c r="AC5" t="n">
-        <v>59.87520471518749</v>
+        <v>85.54877977748363</v>
       </c>
       <c r="AD5" t="n">
-        <v>48377.71690747597</v>
+        <v>69121.34446206572</v>
       </c>
       <c r="AE5" t="n">
-        <v>66192.52654702707</v>
+        <v>94574.8729114626</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.811950799445255e-06</v>
+        <v>1.151594080958284e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.974537037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>59875.20471518749</v>
+        <v>85548.77977748364</v>
       </c>
     </row>
     <row r="6">
@@ -3301,28 +3301,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>47.16872204466149</v>
+        <v>67.91234959925124</v>
       </c>
       <c r="AB6" t="n">
-        <v>64.53832643863612</v>
+        <v>92.92067280307165</v>
       </c>
       <c r="AC6" t="n">
-        <v>58.37887914345641</v>
+        <v>84.05245420575255</v>
       </c>
       <c r="AD6" t="n">
-        <v>47168.7220446615</v>
+        <v>67912.34959925125</v>
       </c>
       <c r="AE6" t="n">
-        <v>64538.32643863613</v>
+        <v>92920.67280307165</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.004535749883678e-06</v>
+        <v>1.184151522363261e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.893518518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>58378.87914345641</v>
+        <v>84052.45420575255</v>
       </c>
     </row>
     <row r="7">
@@ -3407,28 +3407,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>46.53121267788662</v>
+        <v>67.27484023247638</v>
       </c>
       <c r="AB7" t="n">
-        <v>63.66605799808688</v>
+        <v>92.04840436252242</v>
       </c>
       <c r="AC7" t="n">
-        <v>57.58985877863647</v>
+        <v>83.26343384093262</v>
       </c>
       <c r="AD7" t="n">
-        <v>46531.21267788662</v>
+        <v>67274.84023247637</v>
       </c>
       <c r="AE7" t="n">
-        <v>63666.05799808688</v>
+        <v>92048.40436252241</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.068713227231849e-06</v>
+        <v>1.195001043333232e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.866512345679012</v>
       </c>
       <c r="AH7" t="n">
-        <v>57589.85877863647</v>
+        <v>83263.43384093262</v>
       </c>
     </row>
     <row r="8">
@@ -3513,28 +3513,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>45.50298703956896</v>
+        <v>66.24661459415871</v>
       </c>
       <c r="AB8" t="n">
-        <v>62.2591943176277</v>
+        <v>90.64154068206324</v>
       </c>
       <c r="AC8" t="n">
-        <v>56.31726419329429</v>
+        <v>81.99083925559044</v>
       </c>
       <c r="AD8" t="n">
-        <v>45502.98703956896</v>
+        <v>66246.61459415872</v>
       </c>
       <c r="AE8" t="n">
-        <v>62259.1943176277</v>
+        <v>90641.54068206323</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.219861164881637e-06</v>
+        <v>1.220553352131576e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.804783950617284</v>
       </c>
       <c r="AH8" t="n">
-        <v>56317.26419329429</v>
+        <v>81990.83925559044</v>
       </c>
     </row>
     <row r="9">
@@ -3619,28 +3619,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>45.62311733920041</v>
+        <v>66.36674489379017</v>
       </c>
       <c r="AB9" t="n">
-        <v>62.42356189335815</v>
+        <v>90.80590825779369</v>
       </c>
       <c r="AC9" t="n">
-        <v>56.46594475828842</v>
+        <v>82.13951982058457</v>
       </c>
       <c r="AD9" t="n">
-        <v>45623.11733920041</v>
+        <v>66366.74489379016</v>
       </c>
       <c r="AE9" t="n">
-        <v>62423.56189335815</v>
+        <v>90805.90825779369</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.196490479595274e-06</v>
+        <v>1.216602421827454e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.816358024691358</v>
       </c>
       <c r="AH9" t="n">
-        <v>56465.94475828842</v>
+        <v>82139.51982058457</v>
       </c>
     </row>
   </sheetData>
@@ -3916,28 +3916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.31722334948775</v>
+        <v>85.49835903720773</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.36990657925709</v>
+        <v>116.982626756052</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.84056812680603</v>
+        <v>105.8179690446326</v>
       </c>
       <c r="AD2" t="n">
-        <v>65317.22334948774</v>
+        <v>85498.35903720773</v>
       </c>
       <c r="AE2" t="n">
-        <v>89369.90657925709</v>
+        <v>116982.626756052</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.49923641492171e-06</v>
+        <v>9.523528171384989e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.811728395061729</v>
       </c>
       <c r="AH2" t="n">
-        <v>80840.56812680603</v>
+        <v>105817.9690446326</v>
       </c>
     </row>
     <row r="3">
@@ -4022,28 +4022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.82728364646914</v>
+        <v>67.9179409988802</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.12184064477327</v>
+        <v>92.92832320271913</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.57056322185521</v>
+        <v>84.05937446199508</v>
       </c>
       <c r="AD3" t="n">
-        <v>57827.28364646914</v>
+        <v>67917.94099888019</v>
       </c>
       <c r="AE3" t="n">
-        <v>79121.84064477327</v>
+        <v>92928.32320271913</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.735505182176636e-06</v>
+        <v>1.166448730534928e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.113425925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>71570.56322185521</v>
+        <v>84059.37446199507</v>
       </c>
     </row>
     <row r="4">
@@ -4128,28 +4128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>45.56678484357598</v>
+        <v>65.66257967672436</v>
       </c>
       <c r="AB4" t="n">
-        <v>62.34648528763054</v>
+        <v>89.84243834222784</v>
       </c>
       <c r="AC4" t="n">
-        <v>56.39622423563372</v>
+        <v>81.26800212152149</v>
       </c>
       <c r="AD4" t="n">
-        <v>45566.78484357598</v>
+        <v>65662.57967672436</v>
       </c>
       <c r="AE4" t="n">
-        <v>62346.48528763054</v>
+        <v>89842.43834222783</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.167751031980204e-06</v>
+        <v>1.241304678106099e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.924382716049383</v>
       </c>
       <c r="AH4" t="n">
-        <v>56396.22423563372</v>
+        <v>81268.00212152149</v>
       </c>
     </row>
     <row r="5">
@@ -4234,28 +4234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>43.99012346847133</v>
+        <v>64.0859183016197</v>
       </c>
       <c r="AB5" t="n">
-        <v>60.18922763682268</v>
+        <v>87.68518069141999</v>
       </c>
       <c r="AC5" t="n">
-        <v>54.44485222728815</v>
+        <v>79.31663011317592</v>
       </c>
       <c r="AD5" t="n">
-        <v>43990.12346847133</v>
+        <v>64085.91830161971</v>
       </c>
       <c r="AE5" t="n">
-        <v>60189.22763682268</v>
+        <v>87685.18069141998</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.478570351578771e-06</v>
+        <v>1.29513208836938e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.800925925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>54444.85222728815</v>
+        <v>79316.63011317592</v>
       </c>
     </row>
     <row r="6">
@@ -4340,28 +4340,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>43.27200008364552</v>
+        <v>63.36779491679389</v>
       </c>
       <c r="AB6" t="n">
-        <v>59.20665954033671</v>
+        <v>86.70261259493402</v>
       </c>
       <c r="AC6" t="n">
-        <v>53.55605905088751</v>
+        <v>78.42783693677529</v>
       </c>
       <c r="AD6" t="n">
-        <v>43272.00008364551</v>
+        <v>63367.79491679389</v>
       </c>
       <c r="AE6" t="n">
-        <v>59206.65954033671</v>
+        <v>86702.61259493402</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.545775997155319e-06</v>
+        <v>1.306770701635536e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>53556.05905088751</v>
+        <v>78427.83693677529</v>
       </c>
     </row>
     <row r="7">
@@ -4446,28 +4446,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>42.96695422237602</v>
+        <v>63.06274905552439</v>
       </c>
       <c r="AB7" t="n">
-        <v>58.78928233527439</v>
+        <v>86.2852353898717</v>
       </c>
       <c r="AC7" t="n">
-        <v>53.17851574048361</v>
+        <v>78.0502936263714</v>
       </c>
       <c r="AD7" t="n">
-        <v>42966.95422237601</v>
+        <v>63062.74905552439</v>
       </c>
       <c r="AE7" t="n">
-        <v>58789.28233527439</v>
+        <v>86285.2353898717</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.617490994860285e-06</v>
+        <v>1.319190240448249e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.750771604938272</v>
       </c>
       <c r="AH7" t="n">
-        <v>53178.51574048361</v>
+        <v>78050.29362637139</v>
       </c>
     </row>
   </sheetData>
@@ -4743,28 +4743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.44203195305939</v>
+        <v>56.58742232392115</v>
       </c>
       <c r="AB2" t="n">
-        <v>52.59808406077428</v>
+        <v>77.42540768444285</v>
       </c>
       <c r="AC2" t="n">
-        <v>47.57819673998809</v>
+        <v>70.03603544229958</v>
       </c>
       <c r="AD2" t="n">
-        <v>38442.03195305939</v>
+        <v>56587.42232392115</v>
       </c>
       <c r="AE2" t="n">
-        <v>52598.08406077428</v>
+        <v>77425.40768444285</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.137418968194541e-06</v>
+        <v>1.539774777672967e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.874228395061729</v>
       </c>
       <c r="AH2" t="n">
-        <v>47578.19673998809</v>
+        <v>70036.03544229957</v>
       </c>
     </row>
     <row r="3">
@@ -4849,28 +4849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>36.67305152551189</v>
+        <v>54.81844189637337</v>
       </c>
       <c r="AB3" t="n">
-        <v>50.17768699790696</v>
+        <v>75.00501062156465</v>
       </c>
       <c r="AC3" t="n">
-        <v>45.388798975745</v>
+        <v>67.8466376780531</v>
       </c>
       <c r="AD3" t="n">
-        <v>36673.05152551189</v>
+        <v>54818.44189637337</v>
       </c>
       <c r="AE3" t="n">
-        <v>50177.68699790696</v>
+        <v>75005.01062156465</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.7442031447647e-06</v>
+        <v>1.654591401251718e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.673611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>45388.79897574501</v>
+        <v>67846.6376780531</v>
       </c>
     </row>
   </sheetData>
@@ -5146,28 +5146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.38741523752424</v>
+        <v>62.8841355250476</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.04701681448772</v>
+        <v>86.04084847760066</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.07551205186138</v>
+        <v>77.82923065800826</v>
       </c>
       <c r="AD2" t="n">
-        <v>53387.41523752424</v>
+        <v>62884.1355250476</v>
       </c>
       <c r="AE2" t="n">
-        <v>73047.01681448772</v>
+        <v>86040.84847760067</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.050337518976987e-06</v>
+        <v>1.284418380407594e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.175154320987655</v>
       </c>
       <c r="AH2" t="n">
-        <v>66075.51205186138</v>
+        <v>77829.23065800825</v>
       </c>
     </row>
     <row r="3">
@@ -5252,28 +5252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>39.87985192936753</v>
+        <v>58.7877726327437</v>
       </c>
       <c r="AB3" t="n">
-        <v>54.5653727844901</v>
+        <v>80.43602404957694</v>
       </c>
       <c r="AC3" t="n">
-        <v>49.3577301890254</v>
+        <v>72.75932280697283</v>
       </c>
       <c r="AD3" t="n">
-        <v>39879.85192936753</v>
+        <v>58787.7726327437</v>
       </c>
       <c r="AE3" t="n">
-        <v>54565.3727844901</v>
+        <v>80436.02404957694</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.138359728315346e-06</v>
+        <v>1.48263239785064e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.750771604938272</v>
       </c>
       <c r="AH3" t="n">
-        <v>49357.73018902539</v>
+        <v>72759.32280697284</v>
       </c>
     </row>
     <row r="4">
@@ -5358,28 +5358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>38.83163834914417</v>
+        <v>57.73955905252018</v>
       </c>
       <c r="AB4" t="n">
-        <v>53.13116072011602</v>
+        <v>79.00181198519641</v>
       </c>
       <c r="AC4" t="n">
-        <v>48.06039731114163</v>
+        <v>71.46198992908705</v>
       </c>
       <c r="AD4" t="n">
-        <v>38831.63834914417</v>
+        <v>57739.55905252018</v>
       </c>
       <c r="AE4" t="n">
-        <v>53131.16072011602</v>
+        <v>79001.81198519641</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.389834371156026e-06</v>
+        <v>1.528445616381186e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.665895061728395</v>
       </c>
       <c r="AH4" t="n">
-        <v>48060.39731114163</v>
+        <v>71461.98992908705</v>
       </c>
     </row>
   </sheetData>
@@ -5655,28 +5655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>34.97618894364059</v>
+        <v>52.49614802320571</v>
       </c>
       <c r="AB2" t="n">
-        <v>47.85596475310814</v>
+        <v>71.82754569192329</v>
       </c>
       <c r="AC2" t="n">
-        <v>43.28865864342524</v>
+        <v>64.97242554169567</v>
       </c>
       <c r="AD2" t="n">
-        <v>34976.18894364059</v>
+        <v>52496.14802320571</v>
       </c>
       <c r="AE2" t="n">
-        <v>47855.96475310814</v>
+        <v>71827.5456919233</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.943261067150388e-06</v>
+        <v>1.752591016871643e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.716049382716049</v>
       </c>
       <c r="AH2" t="n">
-        <v>43288.65864342524</v>
+        <v>64972.42554169567</v>
       </c>
     </row>
     <row r="3">
@@ -5761,28 +5761,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>34.91446621236499</v>
+        <v>52.4344252919301</v>
       </c>
       <c r="AB3" t="n">
-        <v>47.77151298916255</v>
+        <v>71.74309392797733</v>
       </c>
       <c r="AC3" t="n">
-        <v>43.21226683730156</v>
+        <v>64.89603373557186</v>
       </c>
       <c r="AD3" t="n">
-        <v>34914.46621236498</v>
+        <v>52434.4252919301</v>
       </c>
       <c r="AE3" t="n">
-        <v>47771.51298916255</v>
+        <v>71743.09392797733</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.007924043185049e-06</v>
+        <v>1.765262876730325e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.69675925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>43212.26683730156</v>
+        <v>64896.03373557187</v>
       </c>
     </row>
   </sheetData>
@@ -6058,28 +6058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.28253316186641</v>
+        <v>87.63394614189831</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.05893016790193</v>
+        <v>119.9046312481419</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.27295507821979</v>
+        <v>108.4611015290574</v>
       </c>
       <c r="AD2" t="n">
-        <v>67282.53316186641</v>
+        <v>87633.94614189831</v>
       </c>
       <c r="AE2" t="n">
-        <v>92058.93016790194</v>
+        <v>119904.6312481419</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.31259517170654e-06</v>
+        <v>9.140220154857031e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.908179012345679</v>
       </c>
       <c r="AH2" t="n">
-        <v>83272.95507821979</v>
+        <v>108461.1015290574</v>
       </c>
     </row>
     <row r="3">
@@ -6164,28 +6164,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.18909938943478</v>
+        <v>69.36489538800177</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.98513702336832</v>
+        <v>94.90811003303665</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.25602920923063</v>
+        <v>85.850213215876</v>
       </c>
       <c r="AD3" t="n">
-        <v>59189.09938943478</v>
+        <v>69364.89538800177</v>
       </c>
       <c r="AE3" t="n">
-        <v>80985.13702336833</v>
+        <v>94908.11003303665</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.552511197785427e-06</v>
+        <v>1.12734723763426e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.171296296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>73256.02920923063</v>
+        <v>85850.21321587599</v>
       </c>
     </row>
     <row r="4">
@@ -6270,28 +6270,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>45.97568210936755</v>
+        <v>66.24175423482784</v>
       </c>
       <c r="AB4" t="n">
-        <v>62.9059565659605</v>
+        <v>90.63489052400281</v>
       </c>
       <c r="AC4" t="n">
-        <v>56.90230036038294</v>
+        <v>81.98482377928174</v>
       </c>
       <c r="AD4" t="n">
-        <v>45975.68210936755</v>
+        <v>66241.75423482784</v>
       </c>
       <c r="AE4" t="n">
-        <v>62905.9565659605</v>
+        <v>90634.89052400281</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.136314640000607e-06</v>
+        <v>1.227789522742463e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.908950617283951</v>
       </c>
       <c r="AH4" t="n">
-        <v>56902.30036038293</v>
+        <v>81984.82377928174</v>
       </c>
     </row>
     <row r="5">
@@ -6376,28 +6376,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>44.97993740546344</v>
+        <v>65.24600953092373</v>
       </c>
       <c r="AB5" t="n">
-        <v>61.5435347329236</v>
+        <v>89.27246869096591</v>
       </c>
       <c r="AC5" t="n">
-        <v>55.66990615491959</v>
+        <v>80.75242957381839</v>
       </c>
       <c r="AD5" t="n">
-        <v>44979.93740546344</v>
+        <v>65246.00953092372</v>
       </c>
       <c r="AE5" t="n">
-        <v>61543.5347329236</v>
+        <v>89272.46869096591</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.328151923465762e-06</v>
+        <v>1.260794766848386e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.835648148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>55669.90615491959</v>
+        <v>80752.42957381839</v>
       </c>
     </row>
     <row r="6">
@@ -6482,28 +6482,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>44.09022563952343</v>
+        <v>64.35629776498371</v>
       </c>
       <c r="AB6" t="n">
-        <v>60.32619184345218</v>
+        <v>88.05512580149448</v>
       </c>
       <c r="AC6" t="n">
-        <v>54.56874476226746</v>
+        <v>79.65126818116626</v>
       </c>
       <c r="AD6" t="n">
-        <v>44090.22563952343</v>
+        <v>64356.2977649837</v>
       </c>
       <c r="AE6" t="n">
-        <v>60326.19184345218</v>
+        <v>88055.12580149449</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.463294101826004e-06</v>
+        <v>1.28404572466648e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.781635802469136</v>
       </c>
       <c r="AH6" t="n">
-        <v>54568.74476226747</v>
+        <v>79651.26818116626</v>
       </c>
     </row>
     <row r="7">
@@ -6588,28 +6588,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>43.59439067623349</v>
+        <v>63.86046280169376</v>
       </c>
       <c r="AB7" t="n">
-        <v>59.64776857198449</v>
+        <v>87.3767025300268</v>
       </c>
       <c r="AC7" t="n">
-        <v>53.9550692556554</v>
+        <v>79.03759267455419</v>
       </c>
       <c r="AD7" t="n">
-        <v>43594.39067623349</v>
+        <v>63860.46280169376</v>
       </c>
       <c r="AE7" t="n">
-        <v>59647.7685719845</v>
+        <v>87376.7025300268</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.494468333407908e-06</v>
+        <v>1.289409192625315e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.770061728395062</v>
       </c>
       <c r="AH7" t="n">
-        <v>53955.0692556554</v>
+        <v>79037.59267455419</v>
       </c>
     </row>
     <row r="8">
@@ -6694,28 +6694,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>43.64993975908332</v>
+        <v>63.91601188454361</v>
       </c>
       <c r="AB8" t="n">
-        <v>59.72377327779218</v>
+        <v>87.4527072358345</v>
       </c>
       <c r="AC8" t="n">
-        <v>54.02382017901409</v>
+        <v>79.10634359791288</v>
       </c>
       <c r="AD8" t="n">
-        <v>43649.93975908333</v>
+        <v>63916.01188454361</v>
       </c>
       <c r="AE8" t="n">
-        <v>59723.77327779218</v>
+        <v>87452.70723583449</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.489568756423533e-06</v>
+        <v>1.288566229612786e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.77391975308642</v>
       </c>
       <c r="AH8" t="n">
-        <v>54023.82017901409</v>
+        <v>79106.34359791288</v>
       </c>
     </row>
   </sheetData>
@@ -6991,28 +6991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>34.02223147275494</v>
+        <v>51.17184158402785</v>
       </c>
       <c r="AB2" t="n">
-        <v>46.55071805581537</v>
+        <v>70.01557119756434</v>
       </c>
       <c r="AC2" t="n">
-        <v>42.10798285899295</v>
+        <v>63.33338334995555</v>
       </c>
       <c r="AD2" t="n">
-        <v>34022.23147275494</v>
+        <v>51171.84158402785</v>
       </c>
       <c r="AE2" t="n">
-        <v>46550.71805581536</v>
+        <v>70015.57119756434</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.989543015537151e-06</v>
+        <v>1.802098068704372e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.766203703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>42107.98285899295</v>
+        <v>63333.38334995555</v>
       </c>
     </row>
   </sheetData>
@@ -7288,28 +7288,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.0746866555748</v>
+        <v>78.53259794361223</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.82859247336761</v>
+        <v>107.4517651201087</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.11442505137028</v>
+        <v>97.19671946657235</v>
       </c>
       <c r="AD2" t="n">
-        <v>59074.6866555748</v>
+        <v>78532.59794361223</v>
       </c>
       <c r="AE2" t="n">
-        <v>80828.59247336761</v>
+        <v>107451.7651201087</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.214037157453712e-06</v>
+        <v>1.100552155168738e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.47608024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>73114.42505137027</v>
+        <v>97196.71946657235</v>
       </c>
     </row>
     <row r="3">
@@ -7394,28 +7394,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.92507472277756</v>
+        <v>63.46823735683557</v>
       </c>
       <c r="AB3" t="n">
-        <v>60.10022507321638</v>
+        <v>86.84004237260669</v>
       </c>
       <c r="AC3" t="n">
-        <v>54.36434394343653</v>
+        <v>78.55215060935083</v>
       </c>
       <c r="AD3" t="n">
-        <v>43925.07472277756</v>
+        <v>63468.23735683557</v>
       </c>
       <c r="AE3" t="n">
-        <v>60100.22507321638</v>
+        <v>86840.04237260669</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.33608139430342e-06</v>
+        <v>1.299274527077697e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.943672839506173</v>
       </c>
       <c r="AH3" t="n">
-        <v>54364.34394343653</v>
+        <v>78552.15060935084</v>
       </c>
     </row>
     <row r="4">
@@ -7500,28 +7500,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>42.19760704171171</v>
+        <v>61.74076967576972</v>
       </c>
       <c r="AB4" t="n">
-        <v>57.73662758148784</v>
+        <v>84.47644488087816</v>
       </c>
       <c r="AC4" t="n">
-        <v>52.2263248789879</v>
+        <v>76.4141315449022</v>
       </c>
       <c r="AD4" t="n">
-        <v>42197.60704171171</v>
+        <v>61740.76967576972</v>
       </c>
       <c r="AE4" t="n">
-        <v>57736.62758148785</v>
+        <v>84476.44488087816</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.732393352242852e-06</v>
+        <v>1.369464319700069e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.79320987654321</v>
       </c>
       <c r="AH4" t="n">
-        <v>52226.3248789879</v>
+        <v>76414.13154490221</v>
       </c>
     </row>
     <row r="5">
@@ -7606,28 +7606,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>40.87366312724427</v>
+        <v>60.41682576130555</v>
       </c>
       <c r="AB5" t="n">
-        <v>55.92514910927418</v>
+        <v>82.66496640882593</v>
       </c>
       <c r="AC5" t="n">
-        <v>50.58773136983417</v>
+        <v>74.77553803579607</v>
       </c>
       <c r="AD5" t="n">
-        <v>40873.66312724427</v>
+        <v>60416.82576130555</v>
       </c>
       <c r="AE5" t="n">
-        <v>55925.14910927418</v>
+        <v>82664.96640882593</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.003598357358183e-06</v>
+        <v>1.41749674134631e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.69675925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>50587.73136983417</v>
+        <v>74775.53803579607</v>
       </c>
     </row>
     <row r="6">
@@ -7712,28 +7712,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>40.96410555150492</v>
+        <v>60.50726818556623</v>
       </c>
       <c r="AB6" t="n">
-        <v>56.04889642418517</v>
+        <v>82.78871372373749</v>
       </c>
       <c r="AC6" t="n">
-        <v>50.69966841469088</v>
+        <v>74.88747508065295</v>
       </c>
       <c r="AD6" t="n">
-        <v>40964.10555150492</v>
+        <v>60507.26818556622</v>
       </c>
       <c r="AE6" t="n">
-        <v>56048.89642418516</v>
+        <v>82788.71372373748</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.988036955619883e-06</v>
+        <v>1.414740701466505e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.704475308641975</v>
       </c>
       <c r="AH6" t="n">
-        <v>50699.66841469088</v>
+        <v>74887.47508065295</v>
       </c>
     </row>
   </sheetData>
@@ -8009,28 +8009,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.22362346911492</v>
+        <v>83.22800685676593</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.50535085982436</v>
+        <v>113.8762307419039</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.24940158480587</v>
+        <v>103.0080431062196</v>
       </c>
       <c r="AD2" t="n">
-        <v>63223.62346911492</v>
+        <v>83228.00685676593</v>
       </c>
       <c r="AE2" t="n">
-        <v>86505.35085982436</v>
+        <v>113876.2307419039</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.722533788586515e-06</v>
+        <v>9.97959924019755e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.695987654320988</v>
       </c>
       <c r="AH2" t="n">
-        <v>78249.40158480586</v>
+        <v>103008.0431062196</v>
       </c>
     </row>
     <row r="3">
@@ -8115,28 +8115,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.45794197836502</v>
+        <v>66.46022318074156</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.24824696338334</v>
+        <v>90.93380937397151</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.8757826918113</v>
+        <v>82.25521423374474</v>
       </c>
       <c r="AD3" t="n">
-        <v>56457.94197836502</v>
+        <v>66460.22318074157</v>
       </c>
       <c r="AE3" t="n">
-        <v>77248.24696338334</v>
+        <v>90933.80937397151</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.936156956087088e-06</v>
+        <v>1.209605207170917e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.051697530864198</v>
       </c>
       <c r="AH3" t="n">
-        <v>69875.7826918113</v>
+        <v>82255.21423374474</v>
       </c>
     </row>
     <row r="4">
@@ -8221,28 +8221,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>44.46756621397321</v>
+        <v>64.38660874705261</v>
       </c>
       <c r="AB4" t="n">
-        <v>60.84248586450539</v>
+        <v>88.09659862438733</v>
       </c>
       <c r="AC4" t="n">
-        <v>55.03576440657471</v>
+        <v>79.68878289604967</v>
       </c>
       <c r="AD4" t="n">
-        <v>44467.56621397322</v>
+        <v>64386.60874705261</v>
       </c>
       <c r="AE4" t="n">
-        <v>60842.48586450539</v>
+        <v>88096.59862438732</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.35057021773e-06</v>
+        <v>1.281875261377813e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.878086419753087</v>
       </c>
       <c r="AH4" t="n">
-        <v>55035.76440657471</v>
+        <v>79688.78289604967</v>
       </c>
     </row>
     <row r="5">
@@ -8327,28 +8327,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>42.9916409359935</v>
+        <v>62.91068346907289</v>
       </c>
       <c r="AB5" t="n">
-        <v>58.82305978594675</v>
+        <v>86.07717254582867</v>
       </c>
       <c r="AC5" t="n">
-        <v>53.20906951867076</v>
+        <v>77.86208800814572</v>
       </c>
       <c r="AD5" t="n">
-        <v>42991.6409359935</v>
+        <v>62910.68346907289</v>
       </c>
       <c r="AE5" t="n">
-        <v>58823.05978594675</v>
+        <v>86077.17254582867</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.63510912739165e-06</v>
+        <v>1.331496362651685e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.770061728395062</v>
       </c>
       <c r="AH5" t="n">
-        <v>53209.06951867076</v>
+        <v>77862.08800814571</v>
       </c>
     </row>
     <row r="6">
@@ -8433,28 +8433,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>42.09292116021408</v>
+        <v>62.01196369329695</v>
       </c>
       <c r="AB6" t="n">
-        <v>57.59339173984353</v>
+        <v>84.8475044998944</v>
       </c>
       <c r="AC6" t="n">
-        <v>52.09675926514019</v>
+        <v>76.74977775466508</v>
       </c>
       <c r="AD6" t="n">
-        <v>42092.92116021409</v>
+        <v>62011.96369329695</v>
       </c>
       <c r="AE6" t="n">
-        <v>57593.39173984353</v>
+        <v>84847.50449989439</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.778585185154732e-06</v>
+        <v>1.356517334304046e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.719907407407407</v>
       </c>
       <c r="AH6" t="n">
-        <v>52096.75926514019</v>
+        <v>76749.77775466508</v>
       </c>
     </row>
     <row r="7">
@@ -8539,28 +8539,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>42.15297610296243</v>
+        <v>62.07201863604529</v>
       </c>
       <c r="AB7" t="n">
-        <v>57.67556156194849</v>
+        <v>84.92967432199973</v>
       </c>
       <c r="AC7" t="n">
-        <v>52.17108691474977</v>
+        <v>76.82410540427477</v>
       </c>
       <c r="AD7" t="n">
-        <v>42152.97610296243</v>
+        <v>62072.01863604529</v>
       </c>
       <c r="AE7" t="n">
-        <v>57675.56156194849</v>
+        <v>84929.67432199973</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.778310957215583e-06</v>
+        <v>1.356469511345994e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.719907407407407</v>
       </c>
       <c r="AH7" t="n">
-        <v>52171.08691474977</v>
+        <v>76824.10540427477</v>
       </c>
     </row>
   </sheetData>
@@ -8836,28 +8836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.71838197164698</v>
+        <v>103.3079812733248</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.1789394910213</v>
+        <v>141.350537604576</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.3773003536667</v>
+        <v>127.8602406823589</v>
       </c>
       <c r="AD2" t="n">
-        <v>82718.38197164697</v>
+        <v>103307.9812733248</v>
       </c>
       <c r="AE2" t="n">
-        <v>113178.9394910213</v>
+        <v>141350.537604576</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.887733637008686e-06</v>
+        <v>8.30882324162894e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.178240740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>102377.3003536667</v>
+        <v>127860.2406823589</v>
       </c>
     </row>
     <row r="3">
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.09520463324158</v>
+        <v>82.5994630803478</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.96139842625766</v>
+        <v>113.0162294176147</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.85280180454741</v>
+        <v>102.2301191013008</v>
       </c>
       <c r="AD3" t="n">
-        <v>62095.20463324158</v>
+        <v>82599.46308034781</v>
       </c>
       <c r="AE3" t="n">
-        <v>84961.39842625766</v>
+        <v>113016.2294176147</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.185778983318654e-06</v>
+        <v>1.051541430061086e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.30246913580247</v>
       </c>
       <c r="AH3" t="n">
-        <v>76852.80180454742</v>
+        <v>102230.1191013009</v>
       </c>
     </row>
     <row r="4">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.02277838786991</v>
+        <v>69.36029322027017</v>
       </c>
       <c r="AB4" t="n">
-        <v>80.75756929146266</v>
+        <v>94.90181314411299</v>
       </c>
       <c r="AC4" t="n">
-        <v>73.05018022226467</v>
+        <v>85.84451729319346</v>
       </c>
       <c r="AD4" t="n">
-        <v>59022.77838786991</v>
+        <v>69360.29322027016</v>
       </c>
       <c r="AE4" t="n">
-        <v>80757.56929146266</v>
+        <v>94901.813144113</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.716643531964507e-06</v>
+        <v>1.141784884952891e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.040123456790123</v>
       </c>
       <c r="AH4" t="n">
-        <v>73050.18022226467</v>
+        <v>85844.51729319346</v>
       </c>
     </row>
     <row r="5">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>47.06913374943842</v>
+        <v>67.65864354256523</v>
       </c>
       <c r="AB5" t="n">
-        <v>64.40206533958649</v>
+        <v>92.57354098359278</v>
       </c>
       <c r="AC5" t="n">
-        <v>58.25562261245638</v>
+        <v>83.73845215992206</v>
       </c>
       <c r="AD5" t="n">
-        <v>47069.13374943842</v>
+        <v>67658.64354256523</v>
       </c>
       <c r="AE5" t="n">
-        <v>64402.06533958648</v>
+        <v>92573.54098359277</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.008333167289463e-06</v>
+        <v>1.191370189744859e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.912808641975309</v>
       </c>
       <c r="AH5" t="n">
-        <v>58255.62261245638</v>
+        <v>83738.45215992206</v>
       </c>
     </row>
     <row r="6">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>46.3380280326896</v>
+        <v>66.92753782581643</v>
       </c>
       <c r="AB6" t="n">
-        <v>63.40173424382341</v>
+        <v>91.57320988782969</v>
       </c>
       <c r="AC6" t="n">
-        <v>57.35076171249911</v>
+        <v>82.83359125996479</v>
       </c>
       <c r="AD6" t="n">
-        <v>46338.0280326896</v>
+        <v>66927.53782581643</v>
       </c>
       <c r="AE6" t="n">
-        <v>63401.7342438234</v>
+        <v>91573.2098878297</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.116168337372391e-06</v>
+        <v>1.209701453966499e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.870370370370371</v>
       </c>
       <c r="AH6" t="n">
-        <v>57350.76171249911</v>
+        <v>82833.59125996479</v>
       </c>
     </row>
     <row r="7">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>45.44258832258678</v>
+        <v>66.03209811571359</v>
       </c>
       <c r="AB7" t="n">
-        <v>62.1765541284494</v>
+        <v>90.34802977245567</v>
       </c>
       <c r="AC7" t="n">
-        <v>56.2425110677849</v>
+        <v>81.72534061525057</v>
       </c>
       <c r="AD7" t="n">
-        <v>45442.58832258678</v>
+        <v>66032.0981157136</v>
       </c>
       <c r="AE7" t="n">
-        <v>62176.5541284494</v>
+        <v>90348.02977245567</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.237238064411987e-06</v>
+        <v>1.230282505156921e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.820216049382716</v>
       </c>
       <c r="AH7" t="n">
-        <v>56242.5110677849</v>
+        <v>81725.34061525058</v>
       </c>
     </row>
     <row r="8">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>44.8763576769061</v>
+        <v>65.46586747003292</v>
       </c>
       <c r="AB8" t="n">
-        <v>61.40181237869641</v>
+        <v>89.57328802270267</v>
       </c>
       <c r="AC8" t="n">
-        <v>55.54170958327122</v>
+        <v>81.0245391307369</v>
       </c>
       <c r="AD8" t="n">
-        <v>44876.3576769061</v>
+        <v>65465.86747003291</v>
       </c>
       <c r="AE8" t="n">
-        <v>61401.81237869641</v>
+        <v>89573.28802270268</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.304046107929246e-06</v>
+        <v>1.241639429775336e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.797067901234568</v>
       </c>
       <c r="AH8" t="n">
-        <v>55541.70958327122</v>
+        <v>81024.5391307369</v>
       </c>
     </row>
     <row r="9">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>44.85335751936878</v>
+        <v>65.44286731249559</v>
       </c>
       <c r="AB9" t="n">
-        <v>61.37034254845852</v>
+        <v>89.54181819246479</v>
       </c>
       <c r="AC9" t="n">
-        <v>55.51324318946304</v>
+        <v>80.99607273692872</v>
       </c>
       <c r="AD9" t="n">
-        <v>44853.35751936878</v>
+        <v>65442.8673124956</v>
       </c>
       <c r="AE9" t="n">
-        <v>61370.34254845852</v>
+        <v>89541.81819246479</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.319186441087675e-06</v>
+        <v>1.244213186067623e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.789351851851852</v>
       </c>
       <c r="AH9" t="n">
-        <v>55513.24318946304</v>
+        <v>80996.07273692872</v>
       </c>
     </row>
   </sheetData>
@@ -9875,28 +9875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.3252314809273</v>
+        <v>64.93346735063221</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.69842248912951</v>
+        <v>88.84483469150342</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.47387129018743</v>
+        <v>80.36560836307638</v>
       </c>
       <c r="AD2" t="n">
-        <v>55325.2314809273</v>
+        <v>64933.46735063221</v>
       </c>
       <c r="AE2" t="n">
-        <v>75698.42248912952</v>
+        <v>88844.83469150342</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.734676311447189e-06</v>
+        <v>1.214421508295416e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.279320987654321</v>
       </c>
       <c r="AH2" t="n">
-        <v>68473.87129018744</v>
+        <v>80365.60836307638</v>
       </c>
     </row>
     <row r="3">
@@ -9981,28 +9981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.24962011332139</v>
+        <v>60.38057198106082</v>
       </c>
       <c r="AB3" t="n">
-        <v>56.43955004367403</v>
+        <v>82.61536238729121</v>
       </c>
       <c r="AC3" t="n">
-        <v>51.05303860102269</v>
+        <v>74.73066815245693</v>
       </c>
       <c r="AD3" t="n">
-        <v>41249.62011332139</v>
+        <v>60380.57198106082</v>
       </c>
       <c r="AE3" t="n">
-        <v>56439.55004367403</v>
+        <v>82615.36238729121</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.851920241644666e-06</v>
+        <v>1.415887027363957e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.8125</v>
       </c>
       <c r="AH3" t="n">
-        <v>51053.03860102269</v>
+        <v>74730.66815245693</v>
       </c>
     </row>
     <row r="4">
@@ -10087,28 +10087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>39.50718155729337</v>
+        <v>58.63813342503253</v>
       </c>
       <c r="AB4" t="n">
-        <v>54.05546874036423</v>
+        <v>80.2312810839707</v>
       </c>
       <c r="AC4" t="n">
-        <v>48.89649067121455</v>
+        <v>72.57412022264543</v>
       </c>
       <c r="AD4" t="n">
-        <v>39507.18155729337</v>
+        <v>58638.13342503253</v>
       </c>
       <c r="AE4" t="n">
-        <v>54055.46874036423</v>
+        <v>80231.28108397069</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.272862567200922e-06</v>
+        <v>1.49179288983852e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.669753086419753</v>
       </c>
       <c r="AH4" t="n">
-        <v>48896.49067121455</v>
+        <v>72574.12022264543</v>
       </c>
     </row>
     <row r="5">
@@ -10193,28 +10193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>39.68425296095593</v>
+        <v>58.81520482869512</v>
       </c>
       <c r="AB5" t="n">
-        <v>54.29774564669316</v>
+        <v>80.47355799030072</v>
       </c>
       <c r="AC5" t="n">
-        <v>49.11564500964194</v>
+        <v>72.79327456107316</v>
       </c>
       <c r="AD5" t="n">
-        <v>39684.25296095593</v>
+        <v>58815.20482869512</v>
       </c>
       <c r="AE5" t="n">
-        <v>54297.74564669316</v>
+        <v>80473.55799030072</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.20436637381789e-06</v>
+        <v>1.479441405278034e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.692901234567902</v>
       </c>
       <c r="AH5" t="n">
-        <v>49115.64500964194</v>
+        <v>72793.27456107317</v>
       </c>
     </row>
   </sheetData>
@@ -10490,28 +10490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.82113734778079</v>
+        <v>58.23923749216453</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.485036903659</v>
+        <v>79.68549407057442</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.28506145190845</v>
+        <v>72.08042235579063</v>
       </c>
       <c r="AD2" t="n">
-        <v>39821.13734778079</v>
+        <v>58239.23749216453</v>
       </c>
       <c r="AE2" t="n">
-        <v>54485.036903659</v>
+        <v>79685.49407057442</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.873532545282797e-06</v>
+        <v>1.468949501199806e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.924382716049383</v>
       </c>
       <c r="AH2" t="n">
-        <v>49285.06145190845</v>
+        <v>72080.42235579064</v>
       </c>
     </row>
     <row r="3">
@@ -10596,28 +10596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>37.57294703518732</v>
+        <v>55.9910471795707</v>
       </c>
       <c r="AB3" t="n">
-        <v>51.4089637348269</v>
+        <v>76.60942090172848</v>
       </c>
       <c r="AC3" t="n">
-        <v>46.50256438900471</v>
+        <v>69.29792529288257</v>
       </c>
       <c r="AD3" t="n">
-        <v>37572.94703518732</v>
+        <v>55991.0471795707</v>
       </c>
       <c r="AE3" t="n">
-        <v>51408.9637348269</v>
+        <v>76609.42090172849</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.56430633006545e-06</v>
+        <v>1.597825809357866e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.689043209876543</v>
       </c>
       <c r="AH3" t="n">
-        <v>46502.56438900471</v>
+        <v>69297.92529288257</v>
       </c>
     </row>
     <row r="4">
@@ -10702,28 +10702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>37.56417691471584</v>
+        <v>55.98227705909922</v>
       </c>
       <c r="AB4" t="n">
-        <v>51.39696406908747</v>
+        <v>76.597421235989</v>
       </c>
       <c r="AC4" t="n">
-        <v>46.49170995452178</v>
+        <v>69.28707085839963</v>
       </c>
       <c r="AD4" t="n">
-        <v>37564.17691471584</v>
+        <v>55982.27705909921</v>
       </c>
       <c r="AE4" t="n">
-        <v>51396.96406908747</v>
+        <v>76597.42123598901</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.574567414009019e-06</v>
+        <v>1.59974019963364e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.685185185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>46491.70995452178</v>
+        <v>69287.07085839963</v>
       </c>
     </row>
   </sheetData>
@@ -18908,28 +18908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>37.07047113870372</v>
+        <v>54.91877557711993</v>
       </c>
       <c r="AB2" t="n">
-        <v>50.72145404558932</v>
+        <v>75.14229158997163</v>
       </c>
       <c r="AC2" t="n">
-        <v>45.88066965958002</v>
+        <v>67.9708167435104</v>
       </c>
       <c r="AD2" t="n">
-        <v>37070.47113870372</v>
+        <v>54918.77557711993</v>
       </c>
       <c r="AE2" t="n">
-        <v>50721.45404558932</v>
+        <v>75142.29158997163</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.399804618737376e-06</v>
+        <v>1.615313577689169e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.835648148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>45880.66965958002</v>
+        <v>67970.8167435104</v>
       </c>
     </row>
     <row r="3">
@@ -19014,28 +19014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>35.82005644175982</v>
+        <v>53.66836088017584</v>
       </c>
       <c r="AB3" t="n">
-        <v>49.01058149283584</v>
+        <v>73.43141903721045</v>
       </c>
       <c r="AC3" t="n">
-        <v>44.33308038203153</v>
+        <v>66.4232274659595</v>
       </c>
       <c r="AD3" t="n">
-        <v>35820.05644175982</v>
+        <v>53668.36088017584</v>
       </c>
       <c r="AE3" t="n">
-        <v>49010.58149283584</v>
+        <v>73431.41903721045</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.871723169916081e-06</v>
+        <v>1.706065265125078e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.685185185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>44333.08038203153</v>
+        <v>66423.2274659595</v>
       </c>
     </row>
   </sheetData>
@@ -19311,28 +19311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>32.84687341018731</v>
+        <v>49.56566605582275</v>
       </c>
       <c r="AB2" t="n">
-        <v>44.94254130148</v>
+        <v>67.81793098041193</v>
       </c>
       <c r="AC2" t="n">
-        <v>40.65328823699632</v>
+        <v>61.34548283072007</v>
       </c>
       <c r="AD2" t="n">
-        <v>32846.87341018731</v>
+        <v>49565.66605582274</v>
       </c>
       <c r="AE2" t="n">
-        <v>44942.54130148</v>
+        <v>67817.93098041193</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.989389207241931e-06</v>
+        <v>1.854150807832277e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.843364197530864</v>
       </c>
       <c r="AH2" t="n">
-        <v>40653.28823699632</v>
+        <v>61345.48283072007</v>
       </c>
     </row>
   </sheetData>
@@ -19608,28 +19608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.32277302089491</v>
+        <v>81.14322496126941</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.90452341696781</v>
+        <v>111.023740178401</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.89679346281044</v>
+        <v>100.4277902386008</v>
       </c>
       <c r="AD2" t="n">
-        <v>61322.77302089491</v>
+        <v>81143.22496126941</v>
       </c>
       <c r="AE2" t="n">
-        <v>83904.5234169678</v>
+        <v>111023.740178401</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.931604422161007e-06</v>
+        <v>1.042159498113594e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.603395061728395</v>
       </c>
       <c r="AH2" t="n">
-        <v>75896.79346281044</v>
+        <v>100427.7902386008</v>
       </c>
     </row>
     <row r="3">
@@ -19714,28 +19714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>45.18337530492427</v>
+        <v>64.91848639072715</v>
       </c>
       <c r="AB3" t="n">
-        <v>61.82188744201246</v>
+        <v>88.82433708124802</v>
       </c>
       <c r="AC3" t="n">
-        <v>55.92169327212358</v>
+        <v>80.34706701597516</v>
       </c>
       <c r="AD3" t="n">
-        <v>45183.37530492427</v>
+        <v>64918.48639072715</v>
       </c>
       <c r="AE3" t="n">
-        <v>61821.88744201246</v>
+        <v>88824.33708124801</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.130865135817698e-06</v>
+        <v>1.252864874686308e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.997685185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>55921.69327212358</v>
+        <v>80347.06701597516</v>
       </c>
     </row>
     <row r="4">
@@ -19820,28 +19820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>43.10775834777488</v>
+        <v>62.84286943357777</v>
       </c>
       <c r="AB4" t="n">
-        <v>58.98193675148462</v>
+        <v>85.98438639072018</v>
       </c>
       <c r="AC4" t="n">
-        <v>53.35278348960298</v>
+        <v>77.77815723345458</v>
       </c>
       <c r="AD4" t="n">
-        <v>43107.75834777488</v>
+        <v>62842.86943357777</v>
       </c>
       <c r="AE4" t="n">
-        <v>58981.93675148462</v>
+        <v>85984.38639072017</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.596167214095584e-06</v>
+        <v>1.334616614326529e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.8125</v>
       </c>
       <c r="AH4" t="n">
-        <v>53352.78348960298</v>
+        <v>77778.15723345458</v>
       </c>
     </row>
     <row r="5">
@@ -19926,28 +19926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>42.08517312713938</v>
+        <v>61.82028421294574</v>
       </c>
       <c r="AB5" t="n">
-        <v>57.58279053917167</v>
+        <v>84.58524017857613</v>
       </c>
       <c r="AC5" t="n">
-        <v>52.08716982818156</v>
+        <v>76.51254357208306</v>
       </c>
       <c r="AD5" t="n">
-        <v>42085.17312713938</v>
+        <v>61820.28421294573</v>
       </c>
       <c r="AE5" t="n">
-        <v>57582.79053917167</v>
+        <v>84585.24017857613</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.770212348613333e-06</v>
+        <v>1.365195657891954e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.750771604938272</v>
       </c>
       <c r="AH5" t="n">
-        <v>52087.16982818156</v>
+        <v>76512.54357208306</v>
       </c>
     </row>
     <row r="6">
@@ -20032,28 +20032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>41.72432398022097</v>
+        <v>61.45943506602725</v>
       </c>
       <c r="AB6" t="n">
-        <v>57.08906081681946</v>
+        <v>84.09151045622168</v>
       </c>
       <c r="AC6" t="n">
-        <v>51.64056097757515</v>
+        <v>76.06593472147595</v>
       </c>
       <c r="AD6" t="n">
-        <v>41724.32398022096</v>
+        <v>61459.43506602725</v>
       </c>
       <c r="AE6" t="n">
-        <v>57089.06081681946</v>
+        <v>84091.51045622169</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.829704542907436e-06</v>
+        <v>1.375648201745954e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.727623456790124</v>
       </c>
       <c r="AH6" t="n">
-        <v>51640.56097757515</v>
+        <v>76065.93472147596</v>
       </c>
     </row>
   </sheetData>
@@ -20329,28 +20329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.22572305509907</v>
+        <v>100.6562852539093</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.768373593052</v>
+        <v>137.7223701262415</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.29223407823908</v>
+        <v>124.5783404159904</v>
       </c>
       <c r="AD2" t="n">
-        <v>80225.72305509906</v>
+        <v>100656.2852539093</v>
       </c>
       <c r="AE2" t="n">
-        <v>109768.373593052</v>
+        <v>137722.3701262415</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.084361052128084e-06</v>
+        <v>8.693690785763675e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.050925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>99292.23407823908</v>
+        <v>124578.3404159904</v>
       </c>
     </row>
     <row r="3">
@@ -20435,28 +20435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.60709822445648</v>
+        <v>70.86509450542295</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.92530558713756</v>
+        <v>96.96074864960531</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.01103080831803</v>
+        <v>87.70695088377639</v>
       </c>
       <c r="AD3" t="n">
-        <v>60607.09822445648</v>
+        <v>70865.09450542295</v>
       </c>
       <c r="AE3" t="n">
-        <v>82925.30558713755</v>
+        <v>96960.7486496053</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.369343084945369e-06</v>
+        <v>1.089086686040529e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.233024691358025</v>
       </c>
       <c r="AH3" t="n">
-        <v>75011.03080831803</v>
+        <v>87706.95088377639</v>
       </c>
     </row>
     <row r="4">
@@ -20541,28 +20541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>47.26035619384999</v>
+        <v>67.69082888410921</v>
       </c>
       <c r="AB4" t="n">
-        <v>64.66370432416912</v>
+        <v>92.61757838781025</v>
       </c>
       <c r="AC4" t="n">
-        <v>58.49229113956315</v>
+        <v>83.77828669608793</v>
       </c>
       <c r="AD4" t="n">
-        <v>47260.35619384999</v>
+        <v>67690.82888410921</v>
       </c>
       <c r="AE4" t="n">
-        <v>64663.70432416912</v>
+        <v>92617.57838781025</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.927522668593871e-06</v>
+        <v>1.18452917435743e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.974537037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>58492.29113956315</v>
+        <v>83778.28669608793</v>
       </c>
     </row>
     <row r="5">
@@ -20647,28 +20647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>46.17407968219527</v>
+        <v>66.60455237245449</v>
       </c>
       <c r="AB5" t="n">
-        <v>63.17741287778641</v>
+        <v>91.13128694142756</v>
       </c>
       <c r="AC5" t="n">
-        <v>57.1478492627996</v>
+        <v>82.43384481932438</v>
       </c>
       <c r="AD5" t="n">
-        <v>46174.07968219527</v>
+        <v>66604.55237245449</v>
       </c>
       <c r="AE5" t="n">
-        <v>63177.41287778641</v>
+        <v>91131.28694142756</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.12507671268712e-06</v>
+        <v>1.218308714307784e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.889660493827161</v>
       </c>
       <c r="AH5" t="n">
-        <v>57147.8492627996</v>
+        <v>82433.84481932438</v>
       </c>
     </row>
     <row r="6">
@@ -20753,28 +20753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>45.35652060573059</v>
+        <v>65.78699329598982</v>
       </c>
       <c r="AB6" t="n">
-        <v>62.05879248120711</v>
+        <v>90.01266654484826</v>
       </c>
       <c r="AC6" t="n">
-        <v>56.13598842687589</v>
+        <v>81.42198398340065</v>
       </c>
       <c r="AD6" t="n">
-        <v>45356.52060573059</v>
+        <v>65786.99329598981</v>
       </c>
       <c r="AE6" t="n">
-        <v>62058.79248120711</v>
+        <v>90012.66654484825</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.240748048420724e-06</v>
+        <v>1.238087223649155e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.843364197530864</v>
       </c>
       <c r="AH6" t="n">
-        <v>56135.98842687589</v>
+        <v>81421.98398340066</v>
       </c>
     </row>
     <row r="7">
@@ -20859,28 +20859,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>44.45819867961061</v>
+        <v>64.88867136986984</v>
       </c>
       <c r="AB7" t="n">
-        <v>60.82966879072404</v>
+        <v>88.78354285436517</v>
       </c>
       <c r="AC7" t="n">
-        <v>55.02417057632618</v>
+        <v>80.31016613285097</v>
       </c>
       <c r="AD7" t="n">
-        <v>44458.19867961061</v>
+        <v>64888.67136986984</v>
       </c>
       <c r="AE7" t="n">
-        <v>60829.66879072403</v>
+        <v>88783.54285436517</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.373553901353446e-06</v>
+        <v>1.260795544480412e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.79320987654321</v>
       </c>
       <c r="AH7" t="n">
-        <v>55024.17057632619</v>
+        <v>80310.16613285097</v>
       </c>
     </row>
     <row r="8">
@@ -20965,28 +20965,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>43.91601529020532</v>
+        <v>64.34648798046454</v>
       </c>
       <c r="AB8" t="n">
-        <v>60.08782955789709</v>
+        <v>88.04170362153822</v>
       </c>
       <c r="AC8" t="n">
-        <v>54.3531314387021</v>
+        <v>79.63912699522687</v>
       </c>
       <c r="AD8" t="n">
-        <v>43916.01529020532</v>
+        <v>64346.48798046454</v>
       </c>
       <c r="AE8" t="n">
-        <v>60087.82955789709</v>
+        <v>88041.70362153822</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.468407599368496e-06</v>
+        <v>1.277014469768652e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.758487654320988</v>
       </c>
       <c r="AH8" t="n">
-        <v>54353.1314387021</v>
+        <v>79639.12699522688</v>
       </c>
     </row>
   </sheetData>
@@ -21262,28 +21262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.72809860889854</v>
+        <v>47.86611658419983</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.35773719654145</v>
+        <v>65.49253241450768</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.16991105017156</v>
+        <v>59.24201704022758</v>
       </c>
       <c r="AD2" t="n">
-        <v>39728.09860889854</v>
+        <v>47866.11658419983</v>
       </c>
       <c r="AE2" t="n">
-        <v>54357.73719654145</v>
+        <v>65492.53241450767</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.673541814500883e-06</v>
+        <v>1.859139505910187e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.051697530864198</v>
       </c>
       <c r="AH2" t="n">
-        <v>49169.91105017155</v>
+        <v>59242.01704022758</v>
       </c>
     </row>
   </sheetData>
@@ -21559,28 +21559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.40324863590246</v>
+        <v>60.78158211953278</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.33219253489764</v>
+        <v>83.16404215006699</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.61978679123472</v>
+        <v>75.22698268875043</v>
       </c>
       <c r="AD2" t="n">
-        <v>51403.24863590246</v>
+        <v>60781.58211953278</v>
       </c>
       <c r="AE2" t="n">
-        <v>70332.19253489764</v>
+        <v>83164.04215006699</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.399104898588956e-06</v>
+        <v>1.363235159580787e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.06712962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>63619.78679123471</v>
+        <v>75226.98268875043</v>
       </c>
     </row>
     <row r="3">
@@ -21665,28 +21665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>38.78842711734013</v>
+        <v>57.45957421293</v>
       </c>
       <c r="AB3" t="n">
-        <v>53.07203720641699</v>
+        <v>78.61872437560994</v>
       </c>
       <c r="AC3" t="n">
-        <v>48.0069164626095</v>
+        <v>71.11546366329257</v>
       </c>
       <c r="AD3" t="n">
-        <v>38788.42711734014</v>
+        <v>57459.57421293</v>
       </c>
       <c r="AE3" t="n">
-        <v>53072.03720641699</v>
+        <v>78618.72437560995</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.319723539088421e-06</v>
+        <v>1.532852933148733e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.727623456790124</v>
       </c>
       <c r="AH3" t="n">
-        <v>48006.91646260949</v>
+        <v>71115.46366329257</v>
       </c>
     </row>
     <row r="4">
@@ -21771,28 +21771,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>38.16623857667488</v>
+        <v>56.83738567226465</v>
       </c>
       <c r="AB4" t="n">
-        <v>52.22073139606176</v>
+        <v>77.76741856525089</v>
       </c>
       <c r="AC4" t="n">
-        <v>47.23685808397681</v>
+        <v>70.34540528465868</v>
       </c>
       <c r="AD4" t="n">
-        <v>38166.23857667488</v>
+        <v>56837.38567226465</v>
       </c>
       <c r="AE4" t="n">
-        <v>52220.73139606176</v>
+        <v>77767.41856525089</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.505258176982181e-06</v>
+        <v>1.567036438473153e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.665895061728395</v>
       </c>
       <c r="AH4" t="n">
-        <v>47236.85808397681</v>
+        <v>70345.40528465869</v>
       </c>
     </row>
   </sheetData>
@@ -22068,28 +22068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.11360721379757</v>
+        <v>76.37054349500987</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.14535706441043</v>
+        <v>104.4935468404219</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.68727386389858</v>
+        <v>94.52082938761251</v>
       </c>
       <c r="AD2" t="n">
-        <v>57113.60721379757</v>
+        <v>76370.54349500987</v>
       </c>
       <c r="AE2" t="n">
-        <v>78145.35706441043</v>
+        <v>104493.5468404219</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.484623114849565e-06</v>
+        <v>1.158430595803365e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.368055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>70687.27386389858</v>
+        <v>94520.82938761251</v>
       </c>
     </row>
     <row r="3">
@@ -22174,28 +22174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>42.64897363168521</v>
+        <v>61.99116125891808</v>
       </c>
       <c r="AB3" t="n">
-        <v>58.35420726277784</v>
+        <v>84.81904169143858</v>
       </c>
       <c r="AC3" t="n">
-        <v>52.7849636222743</v>
+        <v>76.7240313967005</v>
       </c>
       <c r="AD3" t="n">
-        <v>42648.97363168521</v>
+        <v>61991.16125891807</v>
       </c>
       <c r="AE3" t="n">
-        <v>58354.20726277784</v>
+        <v>84819.04169143859</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.566591670597318e-06</v>
+        <v>1.351716382267218e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.885802469135803</v>
       </c>
       <c r="AH3" t="n">
-        <v>52784.96362227431</v>
+        <v>76724.03139670049</v>
       </c>
     </row>
     <row r="4">
@@ -22280,28 +22280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>40.88269554623768</v>
+        <v>60.22488317347382</v>
       </c>
       <c r="AB4" t="n">
-        <v>55.9375076634231</v>
+        <v>82.40234209224536</v>
       </c>
       <c r="AC4" t="n">
-        <v>50.59891044092052</v>
+        <v>74.5379782153943</v>
       </c>
       <c r="AD4" t="n">
-        <v>40882.69554623768</v>
+        <v>60224.88317347382</v>
       </c>
       <c r="AE4" t="n">
-        <v>55937.50766342311</v>
+        <v>82402.34209224537</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.980282200727069e-06</v>
+        <v>1.42561917643254e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.73533950617284</v>
       </c>
       <c r="AH4" t="n">
-        <v>50598.91044092052</v>
+        <v>74537.97821539431</v>
       </c>
     </row>
     <row r="5">
@@ -22386,28 +22386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>40.45737156065017</v>
+        <v>59.79955918788625</v>
       </c>
       <c r="AB5" t="n">
-        <v>55.35556062237515</v>
+        <v>81.82039505119479</v>
       </c>
       <c r="AC5" t="n">
-        <v>50.07250360870063</v>
+        <v>74.0115713831736</v>
       </c>
       <c r="AD5" t="n">
-        <v>40457.37156065017</v>
+        <v>59799.55918788625</v>
       </c>
       <c r="AE5" t="n">
-        <v>55355.56062237515</v>
+        <v>81820.39505119479</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.052843598952045e-06</v>
+        <v>1.438581740684824e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.712191358024691</v>
       </c>
       <c r="AH5" t="n">
-        <v>50072.50360870063</v>
+        <v>74011.57138317361</v>
       </c>
     </row>
   </sheetData>
